--- a/analyses/unipept-table-results/264+265_propeps.xlsx
+++ b/analyses/unipept-table-results/264+265_propeps.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1DA05CC1-8520-1848-BFF8-A5379CBD6E45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{29452634-DA0A-FB47-88DE-5356900717CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1620" windowWidth="23420" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="4960" yWindow="4480" windowWidth="23420" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="264+265_propeps" sheetId="1" r:id="rId1"/>
     <sheet name="prok only" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="417">
   <si>
     <t>peptide</t>
   </si>
@@ -1260,13 +1260,28 @@
   </si>
   <si>
     <t>YGFLDK</t>
+  </si>
+  <si>
+    <t>Level of identification</t>
+  </si>
+  <si>
+    <t>unique database ID'd peptides</t>
+  </si>
+  <si>
+    <t>% of total database ID'd peptides</t>
+  </si>
+  <si>
+    <t>P. marinus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1400,6 +1415,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1583,7 +1611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1698,6 +1726,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1743,8 +1814,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4928,15 +5019,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD233"/>
+  <dimension ref="A1:AG233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5036,7 +5132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33" ht="33" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5052,24 +5148,55 @@
       <c r="J3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>COUNTIF(B2:B233,"Prochlorococcus marinus")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>AF4/232*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF5" s="7">
+        <f>COUNTIF(B2:B233,"Cyanobacteria")</f>
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>AF5/232*100</f>
+        <v>0.43103448275862066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -5077,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5085,7 +5212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5093,7 +5220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -5101,7 +5228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -5109,7 +5236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5123,7 +5250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5131,7 +5258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -5151,7 +5278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5162,7 +5289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -7687,5 +7814,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analyses/unipept-table-results/264+265_propeps.xlsx
+++ b/analyses/unipept-table-results/264+265_propeps.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{29452634-DA0A-FB47-88DE-5356900717CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4980AC-BFAD-774E-8D0F-EF94BE9EE1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="4480" windowWidth="23420" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="6700" yWindow="4640" windowWidth="23420" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="264+265_propeps" sheetId="1" r:id="rId1"/>
     <sheet name="prok only" sheetId="2" r:id="rId2"/>
+    <sheet name="Cyano peps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="417">
   <si>
     <t>peptide</t>
   </si>
@@ -1277,7 +1285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2190,11 +2198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AD235"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5018,10 +5026,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A225" workbookViewId="0">
       <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
@@ -5132,7 +5140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="33" thickBot="1">
+    <row r="3" spans="1:33" ht="35" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7816,4 +7824,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DECAD75-26D3-4A4D-9A05-0F2750532C3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analyses/unipept-table-results/264+265_propeps.xlsx
+++ b/analyses/unipept-table-results/264+265_propeps.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4980AC-BFAD-774E-8D0F-EF94BE9EE1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07258AD1-5AF3-F740-B4C1-CF5633440AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="4640" windowWidth="23420" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="2900" windowWidth="23420" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="264+265_propeps" sheetId="1" r:id="rId1"/>
-    <sheet name="prok only" sheetId="2" r:id="rId2"/>
-    <sheet name="Cyano peps" sheetId="3" r:id="rId3"/>
+    <sheet name="DB peps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="417">
   <si>
     <t>peptide</t>
   </si>
@@ -5029,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG233"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7824,22 +7823,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DECAD75-26D3-4A4D-9A05-0F2750532C3D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>